--- a/kijiji_buy_sell.xlsx
+++ b/kijiji_buy_sell.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,37 +511,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NEW ASUS 14" AMD Ryzen 3 128gb SSD 4gb &amp; 8gb RAM LAPTOPS sale!</t>
+          <t>HAND PALLET TRUCK JACK DOCK PLATE BOARD RAMP WAREHOUSE SCALE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>•••HomeBuy &amp; SellComputer AccessoriesLaptop Accessories in Mississauga / Peel RegionAd ID 1592818665</t>
+          <t>•••HomeBuy &amp; SellBusiness &amp; IndustrialOther Business &amp; Industrial in City of TorontoAd ID 1189404305</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Posted about 16 hours ago</t>
+          <t>Posted over a month ago</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rexdale Boulevard, Toronto, ON</t>
+          <t>Toronto, ON M9L2Z9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43.72063</t>
+          <t>43.76003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-79.60003</t>
+          <t>-79.53892</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Toronto (GTA) - Mississauga / Peel Region</t>
+          <t>Toronto (GTA) - City of Toronto</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -551,60 +551,37 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['https://i.ebayimg.com/images/g/T3EAAOSwxT9hhJ2U/s-l640.jpg']</t>
+          <t>['https://i.ebayimg.com/images/g/XHQAAOSw0UdXrGk~/s-l640.jpg', 'https://i.ebayimg.com/images/g/6zUAAOSwV0RXrGkv/s-l640.jpg', 'https://i.ebayimg.com/images/g/UF4AAOSwawpXrGk2/s-l640.jpg', 'https://i.ebayimg.com/images/g/M5UAAOSwaB5XrGlO/s-l640.jpg']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>WINTER CLEARANCE SALE! PRICES ARE THE SAME OR LOWER THAN BOXING DAY!****As of JAN 04, we are still OPEN 10am to 8pm every day with the new restrictions. Please call 647 939 3325****Do not miss out on limited time specials!$299+tax and $349+tax, TWO MODELS, PLEASE READ BELOW!All prices are FIRM, with taxes on top, and warranty + receipt includedNEW (damaged box) + WARRANTY and receipt****GET MICROSOFT OFFICE FOR $79 with ANY LAPTOP PURCHASE!****Product Feature:
-==============
-Asus 14" Windows 10 Laptop with warranty
-(Model #: ASUS VivoBook 14 X412DA-TB31-CB)
-- AMD Ryzen 3 3250U processor, up to 3.50 GHz
-- 128gb SSD / 4gb or 8gb DDR4 ram
-- 14” Anti-Glare Screen LED
-- AMD Radeon Vega 3 graphics
-- WINDOWS 10 HOME 64 BIT included
-- ULTRA SLIM DESIGN
-- Wi-Fi, HD WEBCAM, MICROPHONE, HDMI, CARD READER, USB 3.0 PORTS, USB 3.1 port, USB type C port
-- BLUETOOTH
-- Colour: Gunmetal Grey
-----------------------------------------------------------------------------------
-With 4gb ram = Sale Price $299 (new damaged box) WITH WARRANTY
-With 8gb ram = Sale Price $349 (new damaged box) WITH WARRANTY
-----------------------------------------------------------------------------------
-REGULAR PRICE $450 and $550, SAVE BIG!
----------------------------------------------****GET MICROSOFT OFFICE FOR $79 with ANY LAPTOP PURCHASE!****=================
-VISIT OUR STORE
-ETOBICOKE LOCATION
--
-Store name: Tv Deals Canada
-Number: 647 939 3325
-Address: 600 Queens Plate Drive, Etobicoke, ON M9W 6K5
-Open 7 days a week
--
-Store hours of Operation:
-Mon– Fri: - 10:00 a.m. to 08:00 p.m.
-Saturday: - 10:00 a.m. to 08:00 p.m.
-Sunday: - 12:00 p.m. to 07:00 p.m.
-==================
--
--
--
--SummaryWhether at work or play, ASUS VivoBook 14 is the compact laptop that immerses you in whatever you set out to do. Its new frameless four-sided NanoEdge display boasts an ultraslim 5.7mm bezel, giving an amazing 87% screen-to-body ratio for supremely immersive visuals. The new ErgoLift hinge design also tilts the keyboard up for more comfortable typing. VivoBook 14 is powered by AMD Ryzen processor and dual storage drives to help you get things done with the least amount of fuss.Laptop Features
-Display: 14" HD LCD Display with 2.60Hz
-Processor: AMD Ryzen 3 3250U Dual Core Processor
-Memory: 4 GB or 8 GB of DDR4 SDRAM
-Storage: 128GB Solid State Drive
-Graphics: AMD Radeon Vega 3 graphics
-Operating System: Windows 10 Home
-UPC: 192876748626
-Manufacturer’s Part Number: X412DA-TB31-CB</t>
+          <t>Please call 416-3016462
+www.mrdockplate.ca
+All the products comes with 2 years warranty.
+Standard hand pallet truck 48 * 27 - 5500 lbs 2 years warranty $ 299.99
+Narrow Hand pallet truck 48 * 21 - 5500 lbs $ 269.99
+11000 lbs Capacity pump truck $ 599.99
+Extra long fork pump truck $ 599.99
+Slim low profile hand pallet truck $ 349.99-399.99
+Short hand pallet truck $ 299.99
+extra wide hand pallet truck $ 399.99
+Hand pallet truck with Scale $ 599.99 - $ 999.99
+Hand pallet truck with Scale and printer $ 1299.99
+Lift tables $ 399 up to 52 inches heightDock boards 13000 lbs capacity for Fork lift $ 729 ( 60 * 48 inches)
+Dock board 13000 lbs Capacity for Fork lift $ 850 ( 72 * 48 inches )
+Dock plate for pump truck $ 299.99
+Price scale - counting scale $ 139.99
+bench scales 16* 12 inches and 18 * 20 inches $ 249.99 and 299.99
+Floor scales 4ft * 4ft $ 799.99 and 5ft * 5ft $ 999.99
+Animal Scales $ 399.99
+Crane Scales $ 99.99
+Call 416-301 6462</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['647 939 3325', '647 939 3325', '19287674862']</t>
+          <t>['416-3016462', '416-301 6462']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -614,12 +591,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$299</t>
+          <t>$99.99</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://www.kijiji.ca/v-laptop-accessories/mississauga-peel-region/new-asus-14-amd-ryzen-3-128gb-ssd-4gb-8gb-ram-laptops-sale/1592818665</t>
+          <t>https://www.kijiji.ca/v-other-business-industrial/city-of-toronto/hand-pallet-truck-jack-dock-plate-board-ramp-warehouse-scale/1189404305</t>
         </is>
       </c>
     </row>

--- a/kijiji_buy_sell.xlsx
+++ b/kijiji_buy_sell.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,92 +511,3430 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HAND PALLET TRUCK JACK DOCK PLATE BOARD RAMP WAREHOUSE SCALE</t>
+          <t>Clearance: Apple MacBook Air 13" / Grade A / Core i5 / Monterey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>•••HomeBuy &amp; SellBusiness &amp; IndustrialOther Business &amp; Industrial in City of TorontoAd ID 1189404305</t>
+          <t>•••HomeBuy &amp; SellComputersLaptops in City of TorontoAd ID 1592918472</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Posted 7 days ago</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3196 Danforth Ave, Scarborough, ON</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>43.6924</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-79.28393</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - City of Toronto</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/kUsAAOSwZa1hhaR1/s-l640.jpg', 'https://i.ebayimg.com/images/g/~fYAAOSwf4VhhaRw/s-l640.jpg', 'https://i.ebayimg.com/images/g/7SMAAOSwskJhhaRy/s-l640.jpg', 'https://i.ebayimg.com/images/g/kHwAAOSwON1hhaSF/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Excellent Apple MacBook Air 13" on clearance. Comes with 3-Month warranty that can be upgradedComes with original Apple charger. Tested good battery. Ready to use with the latest Mac OSX Monterey installed.Intel Core i5
+4GB RAM (upgradable)
+128GB SSD (upgradable)
+Intel HD Graphics ChipWhile quantities last.LAPTOP DEPOT
+3194 Danforth Ave, Scarborough, ON M1L 1B7
+Monday to Friday: 9am-7pm647-342-7883</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['647-342-7883']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$390</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-laptops/city-of-toronto/clearance:-apple-macbook-air-13-grade-a-core-i5-monterey/1592918472</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Designer Over the Table Hanging Light Fixture (FLOS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellHome - IndoorIndoor Lighting &amp; Fans in City of TorontoAd ID 1605865191</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Posted 5 days ago</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Toronto, ON M5A 0B1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>43.65119</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-79.36702</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - City of Toronto</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/s-sAAOSwCeZiDmfZ/s-l640.jpg', 'https://i.ebayimg.com/images/g/~UsAAOSwmcViDmfi/s-l640.jpg', 'https://i.ebayimg.com/images/g/cssAAOSwgANiDmfr/s-l640.jpg', 'https://i.ebayimg.com/images/g/WwAAAOSwGCJiDmfy/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>I have 2 x FLOS branded ceiling pendant hanging light fixture in gloss black. Great for over a dining table or work space. Lighting is incredible and studio feeling - perfect for video calls or capturing photos. Lighting is also dimmable to suit your mood. They have clean lines, modern and makes a big impact.
+Regular Retail Price is $1395/each as you can see in the photo, specs included in photos.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$1,100</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-indoor-lighting-fan/city-of-toronto/designer-over-the-table-hanging-light-fixture-flos/1605865191</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Small engine tune ups and repairs </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellHome - Outdoor &amp; GardenLawnmowers &amp; Leaf Blowers in Oshawa / Durham RegionAd ID 1606349204</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Posted about 13 hours ago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>402 Kinmount Crescent, Oshawa, ON L1J 3T7, Canada</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>43.8629</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-78.85258</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oshawa / Durham Region</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/s7kAAOSw7WliE9L0/s-l640.jpg', 'https://i.ebayimg.com/images/g/EfgAAOSwq4ViE9L5/s-l640.jpg', 'https://i.ebayimg.com/images/g/J1cAAOSwKfNiE9MA/s-l640.jpg', 'https://i.ebayimg.com/images/g/zEsAAOSwPQBiE9MI/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Call or text Patrick 4164330209
+Pickering to bowmanville to port perry area's Oshawa area
+Small engine tune ups and repairs.
+Snowblowers
+Generators
+Lawn mowers
+Lawn tractors
+O turn mowers
+Trimmers.
+Change belts. Paddles. Sharpening blades.
+Sparkplugs. Air filters. Oil filter. Oil changes.
+Tires tubes starters pulleys engine swaps etc</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['4164330209']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-lawnmower-leaf-blower/oshawa-durham-region/small-engine-tune-ups-and-repairs/1606349204</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Huge Glass Dining Table For Sale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellFurnitureDining Tables &amp; Sets in City of TorontoAd ID 1606090564</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Posted 3 days ago</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>North York, ON M3C 3A3, Canada</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>43.71951</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-79.32649</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - City of Toronto</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/loQAAOSwYTJiERQX/s-l640.jpg', 'https://i.ebayimg.com/images/g/dE0AAOSw75tiERQY/s-l640.jpg', 'https://i.ebayimg.com/images/g/x00AAOSw~NFiERQZ/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>- Dimensions 72 inches x 42 inches
+-Made of tempered glass
+- Bottom half is wood
+- Comes with all 6 chairs with are in decent condition (just need a good coat of paint)
+- Buyer responsible for transporting it at an agreed upon time</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$800</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-dining-table-set/city-of-toronto/huge-glass-dining-table-for-sale/1606090564</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LED Script number Home Address Cursive sign letters backligt LED</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellOther in Markham / York RegionAd ID 1601767545</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Posted over a month ago</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Toronto, ON M9L2Z9</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>43.76003</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-79.53892</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>North York, ON M3J 3J2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>43.7843</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-79.47496</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Markham / York Region</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/~1kAAOSwoNVh4GQ1/s-l640.jpg', 'https://i.ebayimg.com/images/g/~NsAAOSw2OJh4GQk/s-l640.jpg', 'https://i.ebayimg.com/images/g/jDEAAOSwoQ9h4GPp/s-l640.jpg', 'https://i.ebayimg.com/images/g/jtoAAOSw3kVh4GQA/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>LED backlight also optional
+We are the first and original company doing only house numbers. Our many years of experience will help you to choose a font (we offer fonts) and the right size, by getting from us a mock-up in real scale for your address on your house picture that you can text or email to us.
+WE DON'T TAKE DEPOSIT
+Lifetime warranty on material - Using Acrylic (US import) best outdoor material
+NOT PVC that is ONLY for indoor
+zero maintenance
+We have done over thousands of professional installations -unmatched Quality and our customers are always happy and satisfied with the work we do. (please google reviews for our company)
+If you are interested in customizing your home please text or call : 416-402-0321 you can Email us : signs123@rogers.com as well as find us on Facebook @ My House Number- Company
+http//www.housenumberscript.com</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['416-402-0321']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['signs123@rogers.com as well as find us on Facebook @ My House Number- Company']</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-buy-sell-other/markham-york-region/led-script-number-home-address-cursive-sign-letters-backligt-led/1601767545</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-old-video-games/ottawa/looking-for-nintendo-gamecube-systems-controllers-games/1606432850</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BRAND NEW NEVER WORN FlinT GREY JORDAN 7 RETROS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellClothingMen's Shoes in Oshawa / Durham RegionAd ID 1606432849</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Oshawa, ON L1H3M8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>43.8839</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-78.84287</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oshawa / Durham Region</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/Ar8AAOSwIZdiFI-p/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Size 11 never worn 100% condition 100% authentic ,
+comes with box
+</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$250</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-mens-shoes/oshawa-durham-region/brand-new-never-worn-flint-grey-jordan-7-retros/1606432849</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ultimate Guide To Pro Hockey Teams 2015 Hardcover Book.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellBooksNon-fiction in Oakville / Halton RegionAd ID 1480518946</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Georgetown, ON L7G 3P8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>43.6566176</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-79.9110494</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/RSoAAOSwM2deD4JM/s-l640.jpg', 'https://i.ebayimg.com/images/g/eFIAAOSwWxxeD4KB/s-l640.jpg', 'https://i.ebayimg.com/images/g/po8AAOSw7bZeD4KI/s-l640.jpg', 'https://i.ebayimg.com/images/g/1FoAAOSwxcteD4JS/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>This is a Ultimate Guide To Pro Hockey Teams 2015 Hardcover Book.This Book Has A Total of 128 Glossy Photos and Stories Of NHL Hockey Stars.The Book In In Like New Condition.Price $10.00.If You Have A Question or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-non-fiction/oakville-halton-region/ultimate-guide-to-pro-hockey-teams-2015-hardcover-book/1480518946</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ultimate Collection Of Pro Hockey Records 2015 Hardcover Book.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellBooksNon-fiction in Oakville / Halton RegionAd ID 1480521725</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Georgetown, ON L7G 3P8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>43.6566176</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-79.9110494</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/WnoAAOSwXk1eD4VW/s-l640.jpg', 'https://i.ebayimg.com/images/g/dL0AAOSw-a5eD4Vm/s-l640.jpg', 'https://i.ebayimg.com/images/g/GfwAAOSwc5JeD4aW/s-l640.jpg', 'https://i.ebayimg.com/images/g/Vj0AAOSwX5heD4dZ/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>This is a Ultimate Collection Of Pro Hockey Records 2015 Hardcover Book.The Book Has A Total of 126 Glossy Photos And Stories of NHL Star Records.The Book Is In Like New Condition.Price.$10.00.If You Have A Question or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-non-fiction/oakville-halton-region/ultimate-collection-of-pro-hockey-records-2015-hardcover-book/1480521725</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tables Pub Bar Set Real Marble Tables w/ 3 Bar Stool</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellFurnitureOther Tables in City of TorontoAd ID 1606432847</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Toronto, ON M1C5B3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>43.78145</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-79.13598</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Toronto (GTA) - City of Toronto</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>toronto</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['https://i.ebayimg.com/images/g/XHQAAOSw0UdXrGk~/s-l640.jpg', 'https://i.ebayimg.com/images/g/6zUAAOSwV0RXrGkv/s-l640.jpg', 'https://i.ebayimg.com/images/g/UF4AAOSwawpXrGk2/s-l640.jpg', 'https://i.ebayimg.com/images/g/M5UAAOSwaB5XrGlO/s-l640.jpg']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Please call 416-3016462
-www.mrdockplate.ca
-All the products comes with 2 years warranty.
-Standard hand pallet truck 48 * 27 - 5500 lbs 2 years warranty $ 299.99
-Narrow Hand pallet truck 48 * 21 - 5500 lbs $ 269.99
-11000 lbs Capacity pump truck $ 599.99
-Extra long fork pump truck $ 599.99
-Slim low profile hand pallet truck $ 349.99-399.99
-Short hand pallet truck $ 299.99
-extra wide hand pallet truck $ 399.99
-Hand pallet truck with Scale $ 599.99 - $ 999.99
-Hand pallet truck with Scale and printer $ 1299.99
-Lift tables $ 399 up to 52 inches heightDock boards 13000 lbs capacity for Fork lift $ 729 ( 60 * 48 inches)
-Dock board 13000 lbs Capacity for Fork lift $ 850 ( 72 * 48 inches )
-Dock plate for pump truck $ 299.99
-Price scale - counting scale $ 139.99
-bench scales 16* 12 inches and 18 * 20 inches $ 249.99 and 299.99
-Floor scales 4ft * 4ft $ 799.99 and 5ft * 5ft $ 999.99
-Animal Scales $ 399.99
-Crane Scales $ 99.99
-Call 416-301 6462</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>['416-3016462', '416-301 6462']</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$99.99</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>https://www.kijiji.ca/v-other-business-industrial/city-of-toronto/hand-pallet-truck-jack-dock-plate-board-ramp-warehouse-scale/1189404305</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/CGEAAOSwGRFiFI8Z/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Serious Buyer only
+Must Come &amp; See
+Selling Bar Set
+High End Quality
+Real Marble Table
+Comes w/ 3 Bar Stool
+Mint Excellent Condition
+Paid $1,800 plus Tac New
+Curb Side Pick Up
+Hwy404 and Green Lane
+Newmarket</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-furniture-other-table/city-of-toronto/tables-pub-bar-set-real-marble-tables-w-3-bar-stool/1606432847</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Galaxy S9 64 GB Unlocked -- Buy from a trusted source (with 5-star customer service!)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellPhonesCell Phones in Mississauga / Peel RegionAd ID 10270963</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>213 Sterling Rd Unit 110, Toronto, ON M6R 2B2, Canada</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>43.65563</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-79.44491</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Mississauga / Peel Region</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/pXEAAOSwaIViE3-X/s-l640.jpg', 'https://i.ebayimg.com/images/g/1rQAAOSwdjpiE3-I/s-l640.jpg', 'https://i.ebayimg.com/images/g/O3sAAOSwrYxiE3-F/s-l640.jpg', 'https://i.ebayimg.com/images/g/CE8AAOSwK0tiE390/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>**New in stock! This handset is unlocked and can be used with any carrier.**
+We guarantee that this device will work just like new and back that with a 90 day no-questions-asked returns policy (and free return shipping) not to mention a lifetime blacklist guarantee!
+Condition: its external appearance shows some wear and tear from prior use.
+This phone was available as of 6 AM this morning, so most likely we still have it in stock! But at the same time, it won't last so if you're interested, make your move :)
+Save $10 off this price with promo code “Kijiji”
+More about Orchard:
+Over the last 6 years, Orchard has built a great reputation as Canada’s leading reseller of high-quality used smartphones. Just Google our reviews – they speak for themselves 
+Every phone we sell comes with the following guarantees: 
+     -Free 90-day warranty on all device functionality 
+     -Guaranteed no iCloud lock/Find My iPhone 
+     -Lifetime blacklist guarantee 
+     -Free two-way shipping 
+     -Prompt, attentive customer service
+If this isn't quite the phone you're looking for, we have more than 100 phones in our inventory at any given time: check out our full inventory at www.getorchard.com
+Don’t hesitate to reach out to us by live chat on our website (10 am -6 PM Eastern time, 7 days a week) or at support@getorchard.com or 1-800-736-2703. We’ll be happy to address any questions you might have!</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['800-736-2703']</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['support@getorchard.com or 1-800-736-2703. We’ll be happy to address any questions you might have']</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$239</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-cell-phone/mississauga-peel-region/galaxy-s9-64-gb-unlocked-buy-from-a-trusted-source-with-5-star-customer-service/cas_10270963</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NITROX2-Pull Back-Show Off Your Speed Action Race Cars.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellToys &amp; Games in Oakville / Halton RegionAd ID 1480507862</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Georgetown, ON L7G 3P8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>43.6566176</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-79.9110494</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/yPIAAOSw675eD3YT/s-l640.jpg', 'https://i.ebayimg.com/images/g/tUwAAOSwe-teD3Ya/s-l640.jpg', 'https://i.ebayimg.com/images/g/wbsAAOSwWNZeD3Yj/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>These are Nitrox2-Pull Back Show Off Your Speed Action Race Cars.The Cars Are New Still In Original Box.Price $10.00.If You Have A Question or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-toys-games/oakville-halton-region/nitrox2-pull-back-show-off-your-speed-action-race-cars/1480507862</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vintage-BRESSANT-Metal Hair Clippers No.000.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1424451540</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/YmYAAOSwLdVcom8D/s-l640.jpg', 'https://i.ebayimg.com/images/g/QI4AAOSw4plcom8b/s-l640.jpg', 'https://i.ebayimg.com/images/g/iuMAAOSwPEtcom8w/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>These Are Vintage-BRESSANT Metal Hair Clippers Model No.000.They Come Complete In Original Packaging Also Instruction Book and Box.The |tem is In Pristine Condition.Price $25.00.If You Have a Question or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$25</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/vintage-bressant-metal-hair-clippers-no-000/1424451540</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A Collection Of 7 Various Bottle Openers.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1424012593</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/0d0AAOSwenVcn8-K/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>This is a Collection of 7 Various Bottle Openers.The Items Are All Very Good Condition As Shown In The Photo.Price $15.00.If You have A Question or Request please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/a-collection-of-7-various-bottle-openers/1424012593</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PHILADELPHIA FLYERS-#88-Eric Lindros Hockey Card On Plaque.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423998336</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/8hYAAOSwwBtcn8LM/s-l640.jpg', 'https://i.ebayimg.com/images/g/qlYAAOSwZDVcn8Ly/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>This is a PHILADELPHIA FLYERS-#88-Eric Lindros Hockey Card And Stats On Plaque.The Item Is Like New Condition.It measures 5"x7" Size.Price $15.00.If You Have A Question Or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/philadelphia-flyers-88-eric-lindros-hockey-card-on-plaque/1423998336</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LOS ANGELES KINGS-#99-Wayne Gretzky Hockey Card On Plaque.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423997226</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/SjoAAOSwQsFcn8HD/s-l640.jpg', 'https://i.ebayimg.com/images/g/s1oAAOSwUgxcn8Hf/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>This is a LOS ANGELES KINGS-#99-Wayne Gretzky Hockey Card And Stats Plaque.The Item Is Like New.It Measure 5"x7" Size.Price $15.00.If You have A Question Or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/los-angeles-kings-99-wayne-gretzky-hockey-card-on-plaque/1423997226</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BNIB google pixel 6 pro cloudy white</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellPhonesCell Phones in City of TorontoAd ID 1606432843</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Posted less than a minute ago</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dundas Square, Toronto, ON</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>43.65613</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-79.37896</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - City of Toronto</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/4lAAAOSwttFiFI~g/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Google pixel 6 pro cloudy white
+Sealed brand new in the box
+128 Gb
+Unlocked</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$1,200</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-cell-phone/city-of-toronto/bnib-google-pixel-6-pro-cloudy-white/1606432843</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Apartment Size Stoves 24'' &amp; 30'' ---End of Season SALE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellHome AppliancesStoves, Ovens &amp; Ranges in City of TorontoAd ID 253719</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>260 Geary Ave, Toronto, ON M6H 2C5, Canada</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>43.66965</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-79.44046</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - City of Toronto</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/mE0AAOSwt6heGGMY/s-l640.jpg', 'https://i.ebayimg.com/images/g/mqoAAOSw6y1hF-kJ/s-l640.jpg', 'https://i.ebayimg.com/images/g/~3EAAOSwA39hF-kJ/s-l640.jpg', 'https://i.ebayimg.com/images/g/F4oAAOSwgb5hF-kJ/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Apartment Size Stoves--Electric &amp; Gas Available starting from $399End of Season SALEOffer Valid Until Sunday February 13Call Me Now to Order: (416) 788-9680--(416) 919-9495---(647) 548-6400STOVE FEATURES: Freestanding Electric Range Compact in Size for your rental unit Four Coil Top Electric Elements, available in Gas Storage Drawer to store pots &amp; pans 2.9 &amp; 4.5 Cubic Capacity Oven Available in Porcelain Cooktop for Easy Cleanup of Spills Coil TopsDimensions Available: Width: 24''Depth: 28'' Depth: 26''Width: 30" Depth : 28'' Depth: 26''3 Locations to Choose from:260 Geary Avenue, Toronto3715 Keele Street, North York, unit 112300 Lawrence Avenue East, unit 14WE CARRY THE TOP BRAND NAMES: WHIRLPOOL, MAYTAG, ROPER, FRIGIDAIRE, GE, LG &amp; KENMORE BRAND STOVES IN PERFECT CONDITIONS FOR YOUR RENTAL PROPERTIES Call Now Tel.: (416)788-9680 &amp; (647)240-2905 Give us a call today with a credit card. Your receipt invoice is sent to your email address. Please visit our website at: www.barcelonaappliances.ca We are the Appliance Champions</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['(416) 788-9680', '(416) 919-9495', '(647) 548-6400', '(416)788-9680', '(647)240-2905']</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$399</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-stove-oven-range/city-of-toronto/apartment-size-stoves-24-30-end-of-season-sale/cas_253719</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Detroit Red Wings-#18-Steve Yzerman Hockey Card On Plaque</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423992213</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/ZioAAOSwrn9cn711/s-l640.jpg', 'https://i.ebayimg.com/images/g/SH4AAOSwf4Bcn72E/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>This is a Detroit Red Wings #18-Steve Yzerman Hockey Card And Stats On A Plaque.The Item Is Like New.It Measures 5"x7" Size.Price $15.00.If You Have A Question Or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/detroit-red-wings-18-steve-yzerman-hockey-card-on-plaque/1423992213</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PITTSBURGH PENGUINS-#66-Mario Lemieux Hockey Card On Plaque.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423994443</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/4awAAOSwbllcn79x/s-l640.jpg', 'https://i.ebayimg.com/images/g/he4AAOSwpvRcn773/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>This is a PITTSBURGH PENGUINS-#66-Mario Lemieux Hockey card And Stats Plaque.The Item Is Like New Condition.It Measures 5"x7" Size.Price $15.00.If You Have A Question Or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/pittsburgh-penguins-66-mario-lemieux-hockey-card-on-plaque/1423994443</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TORONTO BLUE JAYS Official Guides.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1424181583</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/5HgAAOSwTHlcoPWM/s-l640.jpg', 'https://i.ebayimg.com/images/g/j4UAAOSwFpVcoPWg/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>These are TORONTO BLUE JAYS Official Guides From the 1988 and 1991 Season.Both of these Guides Are In Excellent Condition.Price $10.00 Each.If you have a question or request please contact me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/toronto-blue-jays-official-guides/1424181583</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DRINK PEPSI-COLA-Young Girl Holding Glass Serving Tray</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423937750</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/dYkAAOSw14hcn5Di/s-l640.jpg', 'https://i.ebayimg.com/images/g/t~oAAOSwPAlcn5D6/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>This is a Drink Pepsi-Cola-Young Girl Holding Glass Serving Tray.The Item Is In Very Good Condition.It Measures 14" High.Price $20.00.If You Have A Question or Request please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$20</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/drink-pepsi-cola-young-girl-holding-glass-serving-tray/1423937750</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2003-NHL-Various Players Mini Lunch Boxes.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423989693</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/MAgAAOSw3LZcn7sw/s-l640.jpg', 'https://i.ebayimg.com/images/g/6w0AAOSwPa1cn7tE/s-l640.jpg', 'https://i.ebayimg.com/images/g/r3oAAOSwm79cn7ta/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>These are 2003-NHL Various Players Mini Lunch Boxes With Bubblegum.The Lunch Boxes Are Brand New And Still Factory Sealed.Price $10.00 Each For Player Of Your Choice As Shown In The Photos.If You Have A Question Or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/2003-nhl-various-players-mini-lunch-boxes/1423989693</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1998-99-PANINI-Complete Hockey Photocard Set In Album</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423725962</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/goEAAOSwBlxcnkDb/s-l640.jpg', 'https://i.ebayimg.com/images/g/snQAAOSwOttcnkDt/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>This is a 1998-99-PANINI-Complete Hockey Photocard Set In Album.The Item Is In Mint Condiiton.Price $25.00.If you have a question or request please contact me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$25</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1998-99-panini-complete-hockey-photocard-set-in-album/1423725962</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Wanted: Rug Hooker Wanted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellHobbies &amp; Crafts in Windsor RegionAd ID 1606432842</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tecumseh, ON N8N</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>42.27805</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-82.83175</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ontario - Windsor Region</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>windsor</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>I am looking for a skilled rug hooker to finish a labour of love that my mother had started but couldn’t finish before she passed away. I don’t have any of her wool anymore. If someone could help me get this finished I would be really grateful. Please contact me so we can discuss fees.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Please Contact</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-hobbies-craft/windsor-area-on/rug-hooker-wanted/1606432842</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1992-SUNLIGHT Presents NHL Hockey Card Collectables  Book.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1424176400</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/NMIAAOSwsnNcoPCR/s-l640.jpg', 'https://i.ebayimg.com/images/g/2V4AAOSwvqFcoPCj/s-l640.jpg', 'https://i.ebayimg.com/images/g/CiEAAOSwXIRcoPC0/s-l640.jpg', 'https://i.ebayimg.com/images/g/3NoAAOSwze9coPDF/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>This is a SUNLIGHT Presents NHL Hockey Card Collectables -All Time Hockey Greats Book.The Book Has a total of 62 pages of color photos and information that will entertain any hockey fan for hours.This book is in like new condition.Price $15.00.If you have a question or request please contact me.Thank you.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1992-sunlight-presents-nhl-hockey-card-collectables-book/1424176400</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bobster Bugeye II Goggles (set of two) new in box - 70$</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellSporting Goods &amp; ExerciseOther in Mississauga / Peel RegionAd ID 1606432840</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Posted about a minute ago</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Brampton, ON L6Z</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>43.72933</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-79.79045</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Mississauga / Peel Region</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>New in box - set of two pairs of goggles in black</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>$70</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-sport-other/mississauga-peel-region/bobster-bugeye-ii-goggles-set-of-two-new-in-box-70/1606432840</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1987-PITTSBURGH PENGUINS-Team Photo Album</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423785485</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/o6gAAOSw8jlcnn~0/s-l640.jpg', 'https://i.ebayimg.com/images/g/QgUAAOSwGLZcnoAF/s-l640.jpg', 'https://i.ebayimg.com/images/g/RycAAOSwcjBcnoAW/s-l640.jpg', 'https://i.ebayimg.com/images/g/z4cAAOSwiahcnoAm/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>This is a 1967-1987-Pittsburgh Penguins Team Photo Album.It also features a Team Photo of the 1967 Penguins Team.It also has pictures of the complete Team of 1987.There is a total of 25 players featured.the itemis in like new condition.Price $25.00.If you have a question or request please contact me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['967-1987']</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>$25</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1987-pittsburgh-penguins-team-photo-album/1423785485</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1993-Toronto Blue Jays -Go,Jays Go Cardboard Hat.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423782716</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/0VsAAOSwo-5cnn0y/s-l640.jpg', 'https://i.ebayimg.com/images/g/jsQAAOSw9QNcnn1E/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>This is a 1993-Toronto Blue Jays-Go,Jays Go Cardboard Hat.This item was Sponsored by The Toronto Star and Becker's to Support the Home Team.The item is New and measures 11.5"x13.5" size.Price $15.00.If you have a question or request please contact me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1993-toronto-blue-jays-go-jays-go-cardboard-hat/1423782716</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Men’s burberry belt </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellClothingMen's in Kitchener / WaterlooAd ID 1606432839</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Kitchener, ON N2C2E6</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>43.41795</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-80.44447</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kitchener Area - Kitchener / Waterloo</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>kitchener</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/FwgAAOSwAZNiEsvu/s-l640.jpg', 'https://i.ebayimg.com/images/g/eEgAAOSwWk1iEsvw/s-l640.jpg', 'https://i.ebayimg.com/images/g/~AIAAOSwWqBiEsvx/s-l640.jpg', 'https://i.ebayimg.com/images/g/q-YAAOSwmYtiEsvz/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Authentic, Had it for a year. Yeo extra holes have been added to the belt to make it fit better on me as seen in the pic. Other then that belts in perfect condition, there for asking $270 message if interested</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>$270</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-clothing-men/kitchener-waterloo/men-s-burberry-belt/1606432839</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Front Load Washers Up To 50% Off-- SALE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellHome AppliancesWashers &amp; Dryers in Toronto (GTA)Ad ID 10255201</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>260 Geary Ave, Toronto, ON M6H 2C5, Canada</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>43.66965</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-79.44046</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ontario - Toronto (GTA)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/9W4AAOSwhI9eVwMt/s-l640.jpg', 'https://i.ebayimg.com/images/g/ZLAAAOSw-MpgNVNO/s-l640.jpg', 'https://i.ebayimg.com/images/g/wksAAOSw199gNVNP/s-l640.jpg', 'https://i.ebayimg.com/images/g/M5AAAOSwDF5gNVNP/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Front Load Washer &amp; Dryer Sets Up to 50% OffAppliance Sale-Offer Valid Until Sunday February 13All Major Brands Available:Whirlpool, Maytag, Samsung, &amp; LG sets At Low CostWe Offer Delivery &amp; Installation &amp; Removal Of Old AppliancesFRONT LOAD WASHERS &amp; DRYERS:From 4.5 Cubic Capacity Washers to 7.5 Cubic Capacity DryersEnergy Star Rating for Efficient Performance1000 to 1400 Revolutions Per Minute Superb Perfomance 24'' Wide &amp; 27'' Wide AppliancesFully Stackable Unit--Save Space &amp; Stack the UnitsSteam Wash System &amp; Steam Drying SystemHigh Capacity &amp; Heavy Duty PerformanceLED Display &amp; Light SystemUp to 16 Washing &amp; Drying ProgramsInverter Direct Drive MotorBARCELONA HOME APPLIANCES CORP, since 20093 Convenient Locations---Opened 7 Days a Week---Long Extended HoursVISIT OUR SHOWROOMS: 2300 Lawrence Avenue East, Unit 13, Scarborough (Kennedy &amp; Lawrence) Tel: (416) 919-9495 or (416) 729-7283 Monday to Friday: 10:30am-to-6:30pmSaturdays: 10am-6:00pmSundays: 11am-5pm260 Geary Avenue, Toronto (Dupont &amp; Dufferin) Tel: (647) 548-6400 or (647) 612-2905Hours: Monday to Friday: 10:00am-to-6:30pmSaturdays: 10am-5:00pmSundays: 11am-5pm3715 Keele Street, Unit 11 North York (Finch &amp; Keele) Tel: (416) 788-9680 OR (647) 539-0508 Hours: Monday to Friday: 10:00am-to-6:30pmSaturdays: 10am-6:00pmSundays: 11am-5pmCome in Today or Pay Over the Phone! Order your appliance today save time &amp; call me at (647) 240-2905!We are the Appliance Champions!Visit our website: barcelonaappliances.ca</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['(416) 919-9495', '(416) 729-7283', '(647) 548-6400', '(647) 612-2905', '(416) 788-9680', '(647) 539-0508', '(647) 240-2905']</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>$399</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-washer-dryer/gta-greater-toronto-area/front-load-washers-up-to-50-off-sale/cas_10255201</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1993-Toronto Blue Jays-Go Jays! Cardboard Sign.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423781366</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/jbYAAOSwhWFcnnwr/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>This is a 1993-Toronto Blue Jays-Go Jays! Cardboard Sign.The Item was Sponsored by The Toronto Star To Cheer on the Home Team.The Item Is New .It measures 11" x 14" size.Price $15.00.If you have a question or request please contact me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1993-toronto-blue-jays-go-jays-cardboard-sign/1423781366</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Toronto Blue Jays-World 93 Champs Cardboard Sign.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423780293</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/MaAAAOSwcSJcnnnc/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>This is a 1993-Toronto Blue Jays World '93 Champs Cardboard Sign.This item was Sponsored by the Toronto Star to Cheer on the Blue Jays.The item is Brand New And Measures 12" x 14" size.Price $15.00.If you have a question or request please contact me.Thank you.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>$15</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/toronto-blue-jays-world-93-champs-cardboard-sign/1423780293</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Toronto Maple Leafs-Stanley Cup Champions-Ron Ellis 16 oz Glass.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1507340617</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Georgetown, ON L7G 3P8</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>43.6566176</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-79.9110494</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/LrUAAOSwYvde6-Nc/s-l640.jpg', 'https://i.ebayimg.com/images/g/KWMAAOSwjW5e6-Np/s-l640.jpg', 'https://i.ebayimg.com/images/g/GTQAAOSw6ohe6-OW/s-l640.jpg', 'https://i.ebayimg.com/images/g/BMYAAOSw7Rde6-N~/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>This is a Toronto Maple Leafs-Stanley Cup Champions-Molson Canadians-Alumni #8-Ron Ellis 16 oz Glass.The Glass Is Brand New.Price $10.00.If you have a question or request please contact me.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>$10</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/toronto-maple-leafs-stanley-cup-champions-ron-ellis-16-oz-glass/1507340617</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1986-SEARS-Fall And Winter Catalogue.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>•••HomeBuy &amp; SellArts &amp; Collectibles in Oakville / Halton RegionAd ID 1423732169</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Posted 2 minutes ago</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Georgetown, Halton Hills, ON L7G</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>43.64442469999999</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-79.90247790000001</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Toronto (GTA) - Oakville / Halton Region</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>toronto</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/images/g/jB8AAOSwxS9cnkdm/s-l640.jpg']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>This is a 1986-SEARS-Fall And Winter Catalogue.The Item is in Like New Condition.Price $25.00.If You Have a Question or Request Please Contact Me.Thank You.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>$25</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1986-sears-fall-and-winter-catalogue/1423732169</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1990-toronto-blue-jays-scorebook-yearbook/1423758373</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1989-toronto-blue-jays-scorebook-magazine/1423757308</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-stove-oven-range/gta-greater-toronto-area/thermadors-48-36-priced-to-sell/cas_1056896</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1989-superbowl-xxiii-official-game-program/1423731363</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1997-98-esso-olympic-hockey-heroes-complete-in-binder/1423724598</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1984-85-brian-mcfarlanes-nhl-hockey-book/1423728481</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-bed-mattress/markham-york-region/beautyrest-black-diamond-2020-queen-boxspring/1606432833</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/2001-toronto-blue-jays-25th-anniversary-official-yearbook/1423730400</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1970s-the-world-of-bob-hope-souvenir-program/1423699261</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>https://www.kijiji.ca/v-art-collectibles/oakville-halton-region/1999-maple-leaf-gardens-final-game-limited-edition-program/1423722974</t>
         </is>
       </c>
     </row>
